--- a/public/support docs/daniv1.xlsx
+++ b/public/support docs/daniv1.xlsx
@@ -9,13 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INTRO" sheetId="1" r:id="rId1"/>
-    <sheet name="STUPID LAYOUT1" sheetId="3" r:id="rId2"/>
-    <sheet name="STUPID LAYOUT1 (2)" sheetId="4" r:id="rId3"/>
-    <sheet name="STUPID LAYOUT1 (3)" sheetId="5" r:id="rId4"/>
+    <sheet name="web tools" sheetId="10" r:id="rId2"/>
+    <sheet name="index" sheetId="6" r:id="rId3"/>
+    <sheet name="STUPID LAYOUT1" sheetId="3" r:id="rId4"/>
+    <sheet name="STUPID LAYOUT1 (2)" sheetId="4" r:id="rId5"/>
+    <sheet name="STUPID LAYOUT1 (3)" sheetId="5" r:id="rId6"/>
+    <sheet name="Fonts" sheetId="7" r:id="rId7"/>
+    <sheet name="landing page layout" sheetId="8" r:id="rId8"/>
+    <sheet name="background" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Stupid layouts mean very basic designs, no great secrets at all</t>
   </si>
@@ -39,13 +44,121 @@
   </si>
   <si>
     <t>Description: Top navbar, three columns, left and right are fixed, center is scrollable</t>
+  </si>
+  <si>
+    <t>The best free layout I've ever met: dinamyc background images used on dosetracker</t>
+  </si>
+  <si>
+    <t>Route: github/edry2/public/support docs</t>
+  </si>
+  <si>
+    <t>Unzip this file and properly set paths on the laravel framework.</t>
+  </si>
+  <si>
+    <t>Change background images as desired.</t>
+  </si>
+  <si>
+    <t>Change round circle icons as well</t>
+  </si>
+  <si>
+    <t>http://bg.siteorigin.com/</t>
+  </si>
+  <si>
+    <t>Hexcellence</t>
+  </si>
+  <si>
+    <t>DOSETRACKER</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>BCG color</t>
+  </si>
+  <si>
+    <t>Old mathematics</t>
+  </si>
+  <si>
+    <t>px by greg3g</t>
+  </si>
+  <si>
+    <t>asfalt</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>black-linen</t>
+  </si>
+  <si>
+    <t>bright-squares</t>
+  </si>
+  <si>
+    <t>brushed alu</t>
+  </si>
+  <si>
+    <t>dark leather</t>
+  </si>
+  <si>
+    <t>egg shell</t>
+  </si>
+  <si>
+    <t>fabric plaid</t>
+  </si>
+  <si>
+    <t>furley bg</t>
+  </si>
+  <si>
+    <t>grey</t>
+  </si>
+  <si>
+    <t>groove paper</t>
+  </si>
+  <si>
+    <t>grunge wall</t>
+  </si>
+  <si>
+    <t>(use dark colors)</t>
+  </si>
+  <si>
+    <t>light honeycomb</t>
+  </si>
+  <si>
+    <t>light wool</t>
+  </si>
+  <si>
+    <t>lil fiber</t>
+  </si>
+  <si>
+    <t>noisy grid</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>random gray variation</t>
+  </si>
+  <si>
+    <t>ravena</t>
+  </si>
+  <si>
+    <t>pending S letter andbeyond</t>
+  </si>
+  <si>
+    <t>tools</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,8 +180,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -77,7 +227,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0B1323"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -91,20 +259,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0B1323"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -120,16 +303,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>178321</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>58724</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>186190</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>103674</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -138,10 +321,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2371725" y="3467100"/>
-          <a:ext cx="7712596" cy="1354124"/>
+          <a:off x="3200400" y="2619375"/>
+          <a:ext cx="6129790" cy="1103799"/>
           <a:chOff x="1095375" y="533400"/>
-          <a:chExt cx="7712596" cy="1354124"/>
+          <a:chExt cx="6129790" cy="1103799"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -152,7 +335,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="1095375" y="533400"/>
-            <a:ext cx="7703071" cy="1344599"/>
+            <a:ext cx="6120265" cy="1094274"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -180,7 +363,7 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr lang="es-ES" sz="4000">
+              <a:rPr lang="es-ES" sz="3200">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -191,7 +374,7 @@
           </a:p>
           <a:p>
             <a:r>
-              <a:rPr lang="es-ES" sz="4000">
+              <a:rPr lang="es-ES" sz="3200">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -200,7 +383,7 @@
               <a:t>HTML</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="es-ES" sz="4000" baseline="0">
+              <a:rPr lang="es-ES" sz="3200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -208,7 +391,7 @@
               </a:rPr>
               <a:t> layouts builder version1</a:t>
             </a:r>
-            <a:endParaRPr lang="es-ES" sz="4000">
+            <a:endParaRPr lang="es-ES" sz="3200">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -225,7 +408,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="1104900" y="542925"/>
-            <a:ext cx="7703071" cy="1344599"/>
+            <a:ext cx="6120265" cy="1094274"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -253,11 +436,9 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr lang="es-ES" sz="4000">
+              <a:rPr lang="es-ES" sz="3200">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="0B1323"/>
                 </a:solidFill>
                 <a:latin typeface="+mj-lt"/>
               </a:rPr>
@@ -266,32 +447,26 @@
           </a:p>
           <a:p>
             <a:r>
-              <a:rPr lang="es-ES" sz="4000">
+              <a:rPr lang="es-ES" sz="3200">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="0B1323"/>
                 </a:solidFill>
                 <a:latin typeface="+mj-lt"/>
               </a:rPr>
               <a:t>HTML</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="es-ES" sz="4000" baseline="0">
+              <a:rPr lang="es-ES" sz="3200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="0B1323"/>
                 </a:solidFill>
                 <a:latin typeface="+mj-lt"/>
               </a:rPr>
               <a:t> layouts builder version1</a:t>
             </a:r>
-            <a:endParaRPr lang="es-ES" sz="4000">
+            <a:endParaRPr lang="es-ES" sz="3200">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="0B1323"/>
               </a:solidFill>
               <a:latin typeface="+mj-lt"/>
             </a:endParaRPr>
@@ -305,7 +480,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1793761" cy="1031629"/>
@@ -361,13 +536,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -423,6 +598,457 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Grupo 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3181349" y="333374"/>
+          <a:ext cx="2066925" cy="457201"/>
+          <a:chOff x="3476624" y="1066799"/>
+          <a:chExt cx="2066925" cy="457201"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Rectángulo redondeado 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3476624" y="1066799"/>
+            <a:ext cx="2066925" cy="457201"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3571875" y="1152525"/>
+            <a:ext cx="1089722" cy="265265"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>border radius</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Grupo 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3200399" y="1123950"/>
+          <a:ext cx="2066926" cy="447675"/>
+          <a:chOff x="3171824" y="1276350"/>
+          <a:chExt cx="2066926" cy="447675"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectángulo redondeado 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3171824" y="1276350"/>
+            <a:ext cx="2066926" cy="447675"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="CuadroTexto 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3286125" y="1343025"/>
+            <a:ext cx="854208" cy="265265"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>web fonts</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="Grupo 9">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3200399" y="1800225"/>
+          <a:ext cx="2066926" cy="447675"/>
+          <a:chOff x="3171824" y="1276350"/>
+          <a:chExt cx="2066926" cy="447675"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Rectángulo redondeado 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3171824" y="1276350"/>
+            <a:ext cx="2066926" cy="447675"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="CuadroTexto 11"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3286125" y="1343025"/>
+            <a:ext cx="954364" cy="265265"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>SVG editor </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4085414" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="152400"/>
+          <a:ext cx="4085414" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ADVISE:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>THIS FILE IS NOT FOR CREATING ICONS OR EDITING IMAGES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -981,7 +1607,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1642,7 +2268,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1769,6 +2395,125 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2535887" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="323850"/>
+          <a:ext cx="2535887" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Free</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> cool fonts: http://cssfontstack.com/</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3684791" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="523875"/>
+          <a:ext cx="3684791" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Avant garde (not contained in Excel fonts): great for big</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> fonts</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2037,11 +2782,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2052,29 +2799,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B4"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="16384" width="11.42578125" style="3"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2082,26 +2817,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B5"/>
+  <dimension ref="B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>3</v>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2110,24 +2870,280 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="6" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/support docs/daniv1.xlsx
+++ b/public/support docs/daniv1.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\github\edry2\public\support docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariaadelaida\Desktop\laravel projects\github\edry2\public\support docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="INTRO" sheetId="1" r:id="rId1"/>
     <sheet name="web tools" sheetId="10" r:id="rId2"/>
-    <sheet name="index" sheetId="6" r:id="rId3"/>
-    <sheet name="STUPID LAYOUT1" sheetId="3" r:id="rId4"/>
-    <sheet name="STUPID LAYOUT1 (2)" sheetId="4" r:id="rId5"/>
+    <sheet name="STUPID LAYOUT1" sheetId="3" r:id="rId3"/>
+    <sheet name="STUPID LAYOUT1 (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Fonts" sheetId="7" r:id="rId5"/>
     <sheet name="STUPID LAYOUT1 (3)" sheetId="5" r:id="rId6"/>
-    <sheet name="Fonts" sheetId="7" r:id="rId7"/>
-    <sheet name="landing page layout" sheetId="8" r:id="rId8"/>
-    <sheet name="background" sheetId="9" r:id="rId9"/>
+    <sheet name="landing page layout" sheetId="8" r:id="rId7"/>
+    <sheet name="background" sheetId="9" r:id="rId8"/>
+    <sheet name="icon builder" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Stupid layouts mean very basic designs, no great secrets at all</t>
   </si>
@@ -151,7 +151,58 @@
     <t>pending S letter andbeyond</t>
   </si>
   <si>
-    <t>tools</t>
+    <t>Icon builder protocol version 1</t>
+  </si>
+  <si>
+    <t>*1</t>
+  </si>
+  <si>
+    <t>*2</t>
+  </si>
+  <si>
+    <t>*3</t>
+  </si>
+  <si>
+    <t>*4</t>
+  </si>
+  <si>
+    <t>*5</t>
+  </si>
+  <si>
+    <t>*6</t>
+  </si>
+  <si>
+    <t>*7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As fast as possible create icon with Excel prebuilt shapes</t>
+  </si>
+  <si>
+    <t>Copy paste icon in a new Paint file</t>
+  </si>
+  <si>
+    <t>Remember to remove whitish outer line, coloring background with dark color, zooming and removing whitish colors</t>
+  </si>
+  <si>
+    <t>Save as png</t>
+  </si>
+  <si>
+    <t>Open lunapic.com (or GIMP) and change background color to transparent (alfa) color.</t>
+  </si>
+  <si>
+    <t>Save in img folder</t>
+  </si>
+  <si>
+    <t>use asset laravel method: &lt;img src="{{asset('assets/img/newimage.png')}}" &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVG icon creator: go to </t>
+  </si>
+  <si>
+    <t>http://svg-edit.googlecode.com/svn-history/r1771/trunk/editor/svg-editor.html</t>
+  </si>
+  <si>
+    <t>Save HTML code and import it into your file.</t>
   </si>
 </sst>
 </file>
@@ -263,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -276,6 +327,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -301,6 +356,66 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9524"/>
+          <a:ext cx="15506700" cy="5381625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0B1323"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -968,87 +1083,254 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="Grupo 12">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3190875" y="2419350"/>
+          <a:ext cx="2066926" cy="447675"/>
+          <a:chOff x="3171824" y="1276350"/>
+          <a:chExt cx="2066926" cy="447675"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectángulo redondeado 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3171824" y="1276350"/>
+            <a:ext cx="2066926" cy="447675"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="CuadroTexto 14"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3286125" y="1343025"/>
+            <a:ext cx="1499513" cy="265265"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Background editor </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="Grupo 15"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3181350" y="3000375"/>
+          <a:ext cx="2066926" cy="447675"/>
+          <a:chOff x="3171824" y="1276350"/>
+          <a:chExt cx="2066926" cy="447675"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Rectángulo redondeado 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3171824" y="1276350"/>
+            <a:ext cx="2066926" cy="447675"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="CuadroTexto 17"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3286125" y="1343025"/>
+            <a:ext cx="1033488" cy="265265"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Icon builder</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4085414" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="314325" y="152400"/>
-          <a:ext cx="4085414" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ADVISE:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>THIS FILE IS NOT FOR CREATING ICONS OR EDITING IMAGES</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1607,7 +1889,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2268,6 +2550,125 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2535887" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="323850"/>
+          <a:ext cx="2535887" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Free</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> cool fonts: http://cssfontstack.com/</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3684791" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="523875"/>
+          <a:ext cx="3684791" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Avant garde (not contained in Excel fonts): great for big</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> fonts</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2400,120 +2801,49 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2535887" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="552450" y="323850"/>
-          <a:ext cx="2535887" cy="264560"/>
+          <a:off x="2352675" y="1781175"/>
+          <a:ext cx="438150" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Free</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> cool fonts: http://cssfontstack.com/</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3684791" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="552450" y="523875"/>
-          <a:ext cx="3684791" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Avant garde (not contained in Excel fonts): great for big</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> fonts</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2782,9 +3112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2801,8 +3129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2816,31 +3144,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B4"/>
   <sheetViews>
@@ -2870,7 +3173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B5"/>
   <sheetViews>
@@ -2895,6 +3198,24 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2926,24 +3247,6 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2986,13 +3289,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:D30"/>
+  <dimension ref="B5:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3037,113 +3338,225 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C15" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C16" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="9"/>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/support docs/daniv1.xlsx
+++ b/public/support docs/daniv1.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="INTRO" sheetId="1" r:id="rId1"/>
     <sheet name="web tools" sheetId="10" r:id="rId2"/>
     <sheet name="STUPID LAYOUT1" sheetId="3" r:id="rId3"/>
     <sheet name="STUPID LAYOUT1 (2)" sheetId="4" r:id="rId4"/>
-    <sheet name="Fonts" sheetId="7" r:id="rId5"/>
-    <sheet name="STUPID LAYOUT1 (3)" sheetId="5" r:id="rId6"/>
+    <sheet name="STUPID LAYOUT1 (3)" sheetId="5" r:id="rId5"/>
+    <sheet name="Fonts" sheetId="7" r:id="rId6"/>
     <sheet name="landing page layout" sheetId="8" r:id="rId7"/>
     <sheet name="background" sheetId="9" r:id="rId8"/>
     <sheet name="icon builder" sheetId="11" r:id="rId9"/>
@@ -254,7 +254,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
@@ -262,8 +261,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="4" tint="-0.499984740745262"/>
+      <color theme="4" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -322,15 +322,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2552,125 +2552,6 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2535887" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="552450" y="323850"/>
-          <a:ext cx="2535887" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Free</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> cool fonts: http://cssfontstack.com/</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3684791" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="552450" y="523875"/>
-          <a:ext cx="3684791" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Avant garde (not contained in Excel fonts): great for big</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> fonts</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -2796,6 +2677,149 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2535887" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="323850"/>
+          <a:ext cx="2535887" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Free</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> cool fonts: http://cssfontstack.com/</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3684791" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="523875"/>
+          <a:ext cx="3684791" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Avant garde (not contained in Excel fonts): great for big</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> fonts</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3130,7 +3154,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3205,24 +3229,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3240,6 +3246,24 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3293,169 +3317,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="9"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="9"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="9"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="9"/>
+      <c r="C33" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3464,7 +3491,7 @@
   <dimension ref="A4:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3478,7 +3505,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3486,7 +3513,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3494,7 +3521,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3502,7 +3529,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3510,7 +3537,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -3518,7 +3545,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3526,7 +3553,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3534,16 +3561,16 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="8"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>55</v>
       </c>
     </row>
